--- a/data/income_statement/3digits/total/466_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/466_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>466-Wholesale of other machinery, equipment and supplies</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>466-Wholesale of other machinery, equipment and supplies</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>14676590.50139</v>
@@ -959,34 +865,39 @@
         <v>28549087.34831</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>31353220.15792</v>
+        <v>31446972.56528</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>36866010.61642</v>
+        <v>37138128.50664</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>42928196.12316</v>
+        <v>43062844.73438001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>50234139.72522</v>
+        <v>51035775.26056</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>56235049.26893001</v>
+        <v>57165044.28121</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>72446958.73166001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>96530756.94970001</v>
+        <v>96777590.11772001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>102169624.18085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>103451373.02056</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>139071576.287</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11393019.39573</v>
@@ -998,34 +909,39 @@
         <v>23196641.49724</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>25115819.96114</v>
+        <v>25147934.88893</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>29800120.76292</v>
+        <v>29967954.25726</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>34347118.11956</v>
+        <v>34424531.75217</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>40949908.55858999</v>
+        <v>41569657.67904</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>45552493.76017</v>
+        <v>46361811.24479</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>57822351.58662</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>69849762.12346001</v>
+        <v>70065764.15191999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>70943467.35625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>71807306.07867999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>103585417.52</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3047748.75836</v>
@@ -1034,115 +950,130 @@
         <v>3641481.39296</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>4874473.63796</v>
+        <v>4874473.637960001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5864588.004549999</v>
+        <v>5926100.696239999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>6628191.39705</v>
+        <v>6729683.99092</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>8051297.254199998</v>
+        <v>8107096.77231</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>8653882.730180001</v>
+        <v>8822663.167189999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9934773.109490002</v>
+        <v>10033314.77933</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>13595160.94771</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>25415804.23402</v>
+        <v>25446136.12698</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>29998230.16589</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>30411189.56737</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>33931686.959</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>235822.3473</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>272364.1108200001</v>
+        <v>272364.11082</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>477972.21311</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>372812.19223</v>
+        <v>372936.98011</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>437698.45645</v>
+        <v>440490.25846</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>529780.7494</v>
+        <v>531216.2099</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>630348.43645</v>
+        <v>643454.4143299999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>747782.3992699999</v>
+        <v>769918.2570900001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1029446.19733</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1265190.59222</v>
+        <v>1265689.83882</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1227926.65871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1232877.37451</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1554471.808</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>483199.1433</v>
+        <v>483199.1432999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>578431.53107</v>
+        <v>578431.5310699999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>841630.18674</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>911111.54423</v>
+        <v>921616.7666999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1031465.34651</v>
+        <v>1049806.44487</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1278957.64223</v>
+        <v>1294385.42238</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1500462.61112</v>
+        <v>1516511.27879</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1812703.71849</v>
+        <v>1834282.15338</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2401624.26145</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3915948.06835</v>
+        <v>3916513.34794</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3140894.2767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3149082.27159</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5524035.664</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>164612.66753</v>
@@ -1154,34 +1085,39 @@
         <v>289880.95015</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>328411.84394</v>
+        <v>328726.23499</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>329867.64022</v>
+        <v>330829.22935</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>453583.6074</v>
+        <v>454136.51106</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>571120.4650900001</v>
+        <v>576665.1867999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>734617.33774</v>
+        <v>746632.33519</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>864270.94427</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>2201290.65836</v>
+        <v>2201822.75723</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1302162.92273</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1312916.72485</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1771148.343</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>280052.70017</v>
@@ -1193,40 +1129,45 @@
         <v>489546.46581</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>509883.6945599999</v>
+        <v>520074.52598</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>621388.12963</v>
+        <v>638493.4176</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>712233.7943300001</v>
+        <v>727108.6708199999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>791249.4769700001</v>
+        <v>800794.362</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>907839.9612200001</v>
+        <v>913336.8508200001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1205792.9822</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1430304.69826</v>
+        <v>1430319.68614</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1531500.56529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1527903.81866</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3396554.852</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>38533.7756</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>48700.25902999999</v>
+        <v>48700.25903</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>62202.77078</v>
@@ -1235,31 +1176,36 @@
         <v>72816.00573</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>80209.57665999999</v>
+        <v>80483.79792</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>113140.2405</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>138092.66906</v>
+        <v>139051.72999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>170246.41953</v>
+        <v>174312.96737</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>331560.33498</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>284352.71173</v>
+        <v>284370.90457</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>307230.7886799999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>308261.72808</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>356332.469</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>14193391.35809</v>
@@ -1271,34 +1217,39 @@
         <v>27707457.16157</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>30442108.61369</v>
+        <v>30525355.79858</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>35834545.26990999</v>
+        <v>36088322.06177</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>41649238.48093</v>
+        <v>41768459.312</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>48733677.1141</v>
+        <v>49519263.98176999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>54422345.55044001</v>
+        <v>55330762.12783</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>70045334.47020999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>92614808.88135001</v>
+        <v>92861076.76978</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>99028729.90415001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>100302290.74897</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>133547540.623</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>11666192.6539</v>
@@ -1310,34 +1261,39 @@
         <v>23199327.76927</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>25722473.33547</v>
+        <v>25798793.89183</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>30036920.88537</v>
+        <v>30263082.08675</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>34989506.89171</v>
+        <v>35092964.14598</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>40815338.99159</v>
+        <v>41498076.273</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>45609614.17922</v>
+        <v>46288789.25842</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>58569362.50611</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>76548802.35573</v>
+        <v>76781998.14889999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>82936152.09281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>84040774.41112</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>112369481.567</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>750791.06809</v>
@@ -1349,34 +1305,39 @@
         <v>1402368.15044</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1198413.1837</v>
+        <v>1202153.57788</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1227651.27156</v>
+        <v>1230753.91368</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1230967.08046</v>
+        <v>1234969.08516</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1819596.67241</v>
+        <v>1844937.09486</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2147743.99339</v>
+        <v>2203006.30992</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2736152.72919</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>3270483.23924</v>
+        <v>3273653.26574</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>5148823.828699999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5166952.03923</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>7164181.432</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>10384551.3484</v>
@@ -1388,34 +1349,39 @@
         <v>20787967.93767</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>23281080.1315</v>
+        <v>23353638.38734</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>27450891.6078</v>
+        <v>27627842.15065</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>32349719.22073</v>
+        <v>32445660.58078</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>37223818.89015999</v>
+        <v>37853601.89969</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>40953845.10451999</v>
+        <v>41560288.69839</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>52812691.36259999</v>
+        <v>52812691.3626</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>69119126.34502001</v>
+        <v>69288686.71051998</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>73247882.85426001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>74266706.94888</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>99187867.822</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>510619.55749</v>
@@ -1424,43 +1390,48 @@
         <v>626174.3462</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>862177.93669</v>
+        <v>862177.9366899999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1011973.53299</v>
+        <v>1011995.43933</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1209337.22887</v>
+        <v>1255445.24528</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1272098.63962</v>
+        <v>1275612.52914</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1656225.48296</v>
+        <v>1682735.00851</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2278884.39592</v>
+        <v>2295291.47766</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2776562.58448</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3953067.97662</v>
+        <v>4013530.97779</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4235601.46021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4294004.46966</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5709925.912</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>20230.67992</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>59406.21214000001</v>
+        <v>59406.21214</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>146813.74447</v>
@@ -1475,25 +1446,30 @@
         <v>136721.9509</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>115697.94606</v>
+        <v>116802.26994</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>229140.68539</v>
+        <v>230202.77245</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>243955.82984</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>206124.79485</v>
+        <v>206127.19485</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>303843.94964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>313110.95335</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>307506.401</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2527198.70419</v>
@@ -1502,37 +1478,42 @@
         <v>3021166.8542</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>4508129.3923</v>
+        <v>4508129.392299999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>4719635.27822</v>
+        <v>4726561.90675</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>5797624.38454</v>
+        <v>5825239.975020001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6659731.589219999</v>
+        <v>6675495.16602</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7918338.122509999</v>
+        <v>8021187.708769999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>8812731.371220002</v>
+        <v>9041972.869410001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>11475971.9641</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>16066006.52562</v>
+        <v>16079078.62088</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16092577.81134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16261516.33785</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>21178059.056</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1855340.85549</v>
@@ -1544,37 +1525,42 @@
         <v>2779088.4733</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3341196.08974</v>
+        <v>3344498.49405</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3931784.03855</v>
+        <v>3953866.41797</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>4633455.04039</v>
+        <v>4642832.22405</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5300854.34755</v>
+        <v>5384087.74643</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5991106.49768</v>
+        <v>6160237.21279</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>7212807.2929</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9242408.173290001</v>
+        <v>9267159.693080001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10435056.82689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10561274.76717</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11638326.34</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8316.68008</v>
+        <v>8316.680079999998</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>8450.520930000001</v>
@@ -1592,7 +1578,7 @@
         <v>13372.77292</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>20163.54285</v>
+        <v>20252.86921</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>27593.93656</v>
@@ -1601,16 +1587,21 @@
         <v>25013.62913</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>33993.63777</v>
+        <v>34033.19129</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>84666.63393000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>56804.63081</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>51379.048</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>807858.9552999999</v>
@@ -1622,34 +1613,39 @@
         <v>1285449.56265</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1539492.39252</v>
+        <v>1540521.11551</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1842001.20645</v>
+        <v>1853498.96221</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2186922.26135</v>
+        <v>2190317.55706</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2516118.58445</v>
+        <v>2568068.56545</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2850572.9677</v>
+        <v>2919875.04814</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3461360.38511</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4469113.93174</v>
+        <v>4472332.39384</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4999013.77179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5064682.30632</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5285165.999</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1039165.22011</v>
@@ -1661,73 +1657,83 @@
         <v>1484732.11872</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1786358.40024</v>
+        <v>1788632.08156</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2077157.9617</v>
+        <v>2087742.58536</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2433160.006120001</v>
+        <v>2439141.89407</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2764572.22025</v>
+        <v>2795766.31177</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3112939.59342</v>
+        <v>3212768.22809</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3726433.27866</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4739300.60378</v>
+        <v>4760794.10795</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5351376.42117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5439787.830039999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6301781.293</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>671857.8487000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>837132.5971799999</v>
+        <v>837132.59718</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>1729040.919</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1378439.18848</v>
+        <v>1382063.4127</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1865840.34599</v>
+        <v>1871373.55705</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2026276.54883</v>
+        <v>2032662.94197</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2617483.77496</v>
+        <v>2637099.96234</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2821624.87354</v>
+        <v>2881735.65662</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>4263164.6712</v>
+        <v>4263164.671200001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6823598.35233</v>
+        <v>6811918.927800001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5657520.984449999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5700241.57068</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>9539732.716</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1545178.50348</v>
@@ -1739,34 +1745,39 @@
         <v>1471918.75302</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1436755.52008</v>
+        <v>1440191.95215</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2392103.37838</v>
+        <v>2409360.30385</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2369607.77827</v>
+        <v>2378440.7292</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4037432.98739</v>
+        <v>4087745.66</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4581602.70479</v>
+        <v>4659051.96716</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>5307788.4122</v>
+        <v>5307788.412200001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16059392.0102</v>
+        <v>16167417.80405</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8841455.82787</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8905738.972930001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>15671552.058</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>26079.96217</v>
@@ -1787,10 +1798,10 @@
         <v>220635.3892</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>35342.90869999999</v>
+        <v>35342.9087</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>9355.297790000001</v>
+        <v>25277.77901</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>195053.19871</v>
@@ -1799,13 +1810,18 @@
         <v>40065.03938</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>20288.76013</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>21380.98344</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>13578.178</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>84444.72048</v>
@@ -1814,7 +1830,7 @@
         <v>20065.18708</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>41557.06908000001</v>
+        <v>41557.06908</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>206165.15975</v>
@@ -1823,28 +1839,33 @@
         <v>234625.64086</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>95514.13997999999</v>
+        <v>95514.13998000001</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>492242.79427</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>271772.96197</v>
+        <v>278572.12639</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>401775.76034</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1360332.06881</v>
+        <v>1360341.50585</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>264289.54042</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>264376.69114</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>790855.801</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>59740.45114</v>
@@ -1856,34 +1877,39 @@
         <v>81293.98066</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>87183.97223999999</v>
+        <v>87309.55718</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>110761.12483</v>
+        <v>110932.51473</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>157441.87464</v>
+        <v>157583.96962</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>214406.49824</v>
+        <v>216489.92465</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>227217.44586</v>
+        <v>230799.52161</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>265879.96049</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>401601.70475</v>
+        <v>403205.14005</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>455836.27713</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>463047.04945</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>380756.329</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>29142.0524</v>
@@ -1892,37 +1918,42 @@
         <v>34841.33547999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>50513.72150000001</v>
+        <v>50513.7215</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>50684.76375999999</v>
+        <v>51560.02425</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>69583.8146</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>88609.05331999999</v>
+        <v>89372.84705</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>73094.25159999999</v>
+        <v>73604.50869999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>67102.72111</v>
+        <v>73270.18886000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>68748.27115999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>118487.67134</v>
+        <v>118549.76877</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>90746.68412000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>92668.93050999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>93235.183</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>17898.57579</v>
@@ -1937,37 +1968,42 @@
         <v>23117.69061</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>24997.40683</v>
+        <v>25001.40683</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>31674.48836</v>
+        <v>31688.98836</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>43339.55098000001</v>
+        <v>43518.09709999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>44445.7922</v>
+        <v>48280.12064</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>57495.35216</v>
+        <v>57495.35215999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>79141.80871000001</v>
+        <v>79472.18130000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>90499.93081000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>90792.95632</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>100471.229</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4172.66637</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7196.54638</v>
+        <v>7196.546380000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>4290.42786</v>
@@ -1976,31 +2012,36 @@
         <v>3683.5311</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6431.080140000001</v>
+        <v>6431.08014</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>6012.81465</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11935.58447</v>
+        <v>11971.90398</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>19560.81605</v>
+        <v>19939.46326</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>13403.09036</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>43089.43456999999</v>
+        <v>46272.37679000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>28868.91287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>29684.77159</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>34036.856</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1213289.89753</v>
@@ -2012,34 +2053,39 @@
         <v>1009031.87035</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>802016.6922899999</v>
+        <v>802018.4249400001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1446724.25104</v>
+        <v>1457795.37345</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1528544.28155</v>
+        <v>1531485.11792</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2898021.8661</v>
+        <v>2936896.70861</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3599318.442499999</v>
+        <v>3635066.84336</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3908313.2995</v>
+        <v>3908313.299500001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>13519134.4555</v>
+        <v>13620209.70118</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7266339.90542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7316316.677979999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>13621976.133</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2907.5143</v>
@@ -2054,31 +2100,36 @@
         <v>1857.61884</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>8252.040229999999</v>
+        <v>8992.13607</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>15906.26206</v>
+        <v>16668.05485</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>20548.81042</v>
+        <v>21431.95889</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>32473.94841</v>
+        <v>32819.20254</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>31127.69241</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>60441.61692</v>
+        <v>60441.61691999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>54109.3781</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>54098.73322000001</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>46801.775</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>388.64724</v>
@@ -2099,7 +2150,7 @@
         <v>86.29907</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>109.54429</v>
+        <v>191.22759</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>7.3685</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>208.26892</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>66.72</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>107114.01606</v>
@@ -2129,34 +2185,39 @@
         <v>138180.95213</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>140166.91565</v>
+        <v>142600.76964</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>210094.41499</v>
+        <v>215364.73231</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>225183.17544</v>
+        <v>229393.1085</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>248391.17832</v>
+        <v>256055.62751</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>310347.9104000001</v>
+        <v>315019.35299</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>365941.6802999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>437066.80239</v>
+        <v>438829.06598</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>570268.16995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>573163.91036</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>589773.8540000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1322888.88631</v>
@@ -2168,34 +2229,39 @@
         <v>1370615.07109</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>943172.87678</v>
+        <v>945552.6320300001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1983510.81275</v>
+        <v>2004718.39464</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1771150.8991</v>
+        <v>1775345.81828</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3454176.600630001</v>
+        <v>3491157.903919999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4525772.50053</v>
+        <v>4574572.1739</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4943308.90074</v>
+        <v>4943308.900739999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>15639360.71319</v>
+        <v>15741076.66431</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8073984.818179999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>8136044.11429</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14667296.776</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>23653.24913</v>
@@ -2204,43 +2270,48 @@
         <v>28850.84663</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>56800.99467</v>
+        <v>56800.99466999999</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>61235.17769</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>57281.6876</v>
+        <v>57281.83764999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>61546.58909</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>72329.67590999999</v>
+        <v>72551.44129</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>84149.06610000001</v>
+        <v>84652.12431</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>92634.45387</v>
+        <v>92634.45386999998</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>108126.46258</v>
+        <v>108132.75065</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>117609.3063</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>117842.64048</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>219343.156</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>62649.84167999999</v>
+        <v>62649.84168</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>46211.93646000001</v>
+        <v>46211.93645999999</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>53842.39864</v>
@@ -2249,31 +2320,36 @@
         <v>75778.27603000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>90380.61512999999</v>
+        <v>91251.14002000001</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>105789.75842</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>119899.6693</v>
+        <v>121172.73141</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>268445.65251</v>
+        <v>273104.1185599999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>162983.60026</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>362493.97705</v>
+        <v>362773.0290500001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>278915.25228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>282493.63057</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>280114.088</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1865.92622</v>
@@ -2294,10 +2370,10 @@
         <v>8983.251179999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>8301.630360000001</v>
+        <v>8344.4396</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2716.66808</v>
+        <v>2942.279579999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>2292.33193</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>3795.90716</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>15631.307</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1194812.89206</v>
@@ -2324,34 +2405,39 @@
         <v>1158956.48788</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>717481.4698600001</v>
+        <v>718446.1088800001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1708625.51776</v>
+        <v>1727356.30605</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1487835.41963</v>
+        <v>1491104.06583</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3119034.21268</v>
+        <v>3150165.64506</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3986953.95294</v>
+        <v>4020730.61196</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4486077.064350001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14784736.79951</v>
+        <v>14885886.62926</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7220292.00328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7272993.154159999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13837898.602</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1258.68696</v>
@@ -2366,19 +2452,19 @@
         <v>3904.1242</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>9169.62032</v>
+        <v>10101.07568</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>19611.42471</v>
+        <v>20537.6884</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>27839.06012999999</v>
+        <v>28839.18699</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>28657.96137</v>
+        <v>29079.20614</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>35636.99695</v>
+        <v>35636.99694999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>68814.25131000001</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>81291.75109000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>59066.935</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>130.73383</v>
@@ -2399,7 +2490,7 @@
         <v>228.64972</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>550.0310800000001</v>
+        <v>550.03108</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>232.10184</v>
@@ -2425,53 +2516,63 @@
       <c r="M42" s="48" t="n">
         <v>0.1289</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1375.214</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>38517.55643</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>75621.81889000001</v>
+        <v>75621.81889</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>94714.33848999999</v>
+        <v>94714.33849000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>83788.66187000001</v>
+        <v>85203.7781</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>81671.76634</v>
+        <v>82346.42964</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>87039.66124999999</v>
+        <v>87039.67053999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>106584.66417</v>
+        <v>109896.77149</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>154154.61614</v>
+        <v>163369.24996</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>163100.07086</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>308425.56138</v>
+        <v>308706.34268</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>372080.46917</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>377626.90193</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>253867.474</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>317699.64515</v>
+        <v>317699.6451500001</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>306526.18684</v>
@@ -2480,34 +2581,39 @@
         <v>480055.52447</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>475626.11488</v>
+        <v>475752.04736</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>586195.41044</v>
+        <v>598330.8286700001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>704425.72143</v>
+        <v>705624.3565399999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1046811.1814</v>
+        <v>1064912.58896</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1196026.24219</v>
+        <v>1214413.41527</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1376386.13137</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2785139.93889</v>
+        <v>2788190.00509</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2510516.73436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2533961.39844</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2387486.96</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>252109.98374</v>
@@ -2516,43 +2622,48 @@
         <v>208767.93117</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>332345.1948</v>
+        <v>332345.1947999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>404505.52202</v>
+        <v>404631.4545</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>469585.5009500001</v>
+        <v>481720.91918</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>595631.29608</v>
+        <v>596829.93119</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>887500.6257100001</v>
+        <v>904854.3649800002</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1066237.3028</v>
+        <v>1083890.60438</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1249369.69275</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2488320.74412</v>
+        <v>2491370.81032</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2392185.08561</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2415516.79869</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2248498.39</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>65589.66141</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>97758.25567000001</v>
+        <v>97758.25567</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>147710.32967</v>
@@ -2567,103 +2678,118 @@
         <v>108794.42535</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>159310.55569</v>
+        <v>160058.22398</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>129788.93939</v>
+        <v>130522.81089</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>127016.43862</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>296819.1947700001</v>
+        <v>296819.19477</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>118331.64875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>118444.59975</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>138988.57</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>576447.8207200001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>741755.1694</v>
+        <v>741755.1694000001</v>
       </c>
       <c r="E47" s="47" t="n">
         <v>1350289.07646</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1396395.7169</v>
+        <v>1400950.68546</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1688237.50118</v>
+        <v>1677684.63759</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1920307.70657</v>
+        <v>1930133.49635</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2153928.98032</v>
+        <v>2168775.12946</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1681428.83561</v>
+        <v>1751802.03461</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>3251258.05129</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4458489.71045</v>
+        <v>4450070.06245</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3914475.25978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3935975.03088</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8156501.038</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>140817.48173</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>97078.81362999999</v>
+        <v>97078.81363</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>138221.3455</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>172392.49272</v>
+        <v>172411.50326</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>170399.21065</v>
+        <v>174777.67494</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>252341.27372</v>
+        <v>252540.5135</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>496599.28303</v>
+        <v>500566.10036</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>417549.25028</v>
+        <v>423306.06133</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>568739.91432</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>684945.64908</v>
+        <v>695959.9074500001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>657951.1684</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>662183.5891900001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>760370.448</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>13086.3635</v>
@@ -2678,31 +2804,36 @@
         <v>21304.75598</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>19467.76884</v>
+        <v>19467.88637</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>31520.51476</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>19443.3118</v>
+        <v>19475.21931</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>33944.84222</v>
+        <v>34086.06679</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>49757.93332</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>13506.9154</v>
+        <v>13506.91756</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>39985.61953</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>39986.17453</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>22311.075</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>127731.11823</v>
@@ -2714,76 +2845,86 @@
         <v>122996.83345</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>151087.73674</v>
+        <v>151106.74728</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>150931.44181</v>
+        <v>155309.78857</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>220820.75896</v>
+        <v>221019.99874</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>477155.97123</v>
+        <v>481090.88105</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>383604.40806</v>
+        <v>389219.99454</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>518981.981</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>671438.7336800001</v>
+        <v>682452.98989</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>617965.5488700001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>622197.41466</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>738059.373</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>91293.04347</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>90436.49914999999</v>
+        <v>90436.49915</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>515524.00999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>133326.91808</v>
+        <v>134058.60745</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>123981.02922</v>
+        <v>127597.03285</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>331246.14685</v>
+        <v>332971.12294</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>193640.28185</v>
+        <v>201406.93574</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>599207.2600400001</v>
+        <v>607139.70346</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>280835.80524</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>752085.92628</v>
+        <v>761611.1079000001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>467491.73038</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>474114.38411</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>718079.509</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9279.011619999999</v>
+        <v>9279.011620000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>8565.874949999999</v>
@@ -2801,25 +2942,30 @@
         <v>6857.50441</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7473.76162</v>
+        <v>10526.40727</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>5417.4089</v>
+        <v>5645.533359999999</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3314.18482</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4445.34179</v>
+        <v>4876.39694</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6132.11933</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6153.32587</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>13546.876</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>10864.71983</v>
@@ -2834,31 +2980,36 @@
         <v>12073.31495</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>13932.58412</v>
+        <v>13949.49616</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>16704.22388</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>18538.39588</v>
+        <v>18685.68447</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>34690.90411</v>
+        <v>35092.03988</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>20447.42008</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>32861.45854</v>
+        <v>33280.47338</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>35551.30271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>36857.62729</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>46475.027</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>71149.31202</v>
@@ -2870,73 +3021,83 @@
         <v>492934.86795</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>119588.50364</v>
+        <v>120320.19301</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>105350.71926</v>
+        <v>108949.81085</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>307684.41856</v>
+        <v>309409.39465</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>167628.12435</v>
+        <v>172194.844</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>559098.9470299999</v>
+        <v>566402.1302200001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>257074.20034</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>714779.1259499999</v>
+        <v>723454.23758</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>425808.30834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>431103.4309500001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>658057.606</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>625972.25898</v>
+        <v>625972.2589799999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>748397.4838800001</v>
+        <v>748397.48388</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>972986.4119699999</v>
+        <v>972986.41197</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1435461.29154</v>
+        <v>1439303.58127</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1734655.68261</v>
+        <v>1724865.27968</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1841402.83344</v>
+        <v>1849702.88691</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2456887.9815</v>
+        <v>2467934.29408</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1499770.82585</v>
+        <v>1567968.39248</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3539162.16037</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4391349.43325</v>
+        <v>4384418.862</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4104934.6978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4124044.23596</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8198791.977</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>127784.05031</v>
@@ -2948,34 +3109,39 @@
         <v>251164.09901</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>232887.26915</v>
+        <v>232958.43165</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>301710.5796</v>
+        <v>303165.43797</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>351352.7465299999</v>
+        <v>353248.70702</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>440271.28493</v>
+        <v>445191.6333100001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>401866.1239400001</v>
+        <v>412477.06732</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>628211.6688399999</v>
+        <v>628211.6688400001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>895926.81869</v>
+        <v>898002.9128900002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>871506.0952699999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>885630.1163199999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1583714.187</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>498188.20867</v>
@@ -2987,31 +3153,34 @@
         <v>721822.31296</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1202574.02239</v>
+        <v>1206345.14962</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1432945.10301</v>
+        <v>1421699.84171</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1490050.08691</v>
+        <v>1496454.17989</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2016616.69657</v>
+        <v>2022742.66077</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1097904.70191</v>
+        <v>1155491.32516</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2910950.49153</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3495422.614560001</v>
+        <v>3486415.94911</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3233428.60253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3238414.11964</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6615077.79</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4492</v>
@@ -3041,31 +3213,34 @@
         <v>5112</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5709</v>
+        <v>5713</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6882</v>
+        <v>6895</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7243</v>
+        <v>7264</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7491</v>
+        <v>7559</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7762</v>
+        <v>7850</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>8374</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>8344</v>
+        <v>9163</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9892</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10689</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>